--- a/diaries/diary-Tianlun Li.xlsx
+++ b/diaries/diary-Tianlun Li.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/litianlun/Winter2020/265/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7702CB90-32D8-3346-BE3B-2216A2EFC293}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154C3F45-902A-4145-A047-757CF6423648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32800" yWindow="2720" windowWidth="28060" windowHeight="17540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-32800" yWindow="2720" windowWidth="31920" windowHeight="17540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Achievements</t>
   </si>
   <si>
-    <t>Etc.</t>
-  </si>
-  <si>
     <t>Tianlun Li</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -97,6 +94,46 @@
   </si>
   <si>
     <t>Looking forward to dive deeper</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:00 - 8:05 p.m.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn the basic strategies of  understanding source codes</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read and debuged the pacman project, listened to google alumni talking about engineering and management in google</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>We do not need to understand the whole project to debug. Only read the necessary code. Working at google is soooo coooool</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pretty Good</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00 - 8:00 p.m.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build the Jedit project and find one more project to build</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully built the Jedit project , downloaded a project called jadx and built the project following the readme.md</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>If there's a readme along with the project, your life would be much easier</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happy</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +280,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -269,19 +306,22 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="4" builtinId="8"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -297,7 +337,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -593,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -605,24 +645,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="16">
       <c r="A3" s="1"/>
@@ -638,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -650,8 +690,8 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -663,8 +703,8 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>13</v>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -707,7 +747,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>7</v>
@@ -715,47 +755,69 @@
     </row>
     <row r="10" spans="1:7" ht="34">
       <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="8" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="68">
+      <c r="A11" s="11">
+        <v>43840</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="68">
+      <c r="A12" s="11">
+        <v>43846</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="16">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="17">
-      <c r="A13" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="D12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16">
+      <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -791,19 +853,19 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="16">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="16">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
@@ -812,7 +874,7 @@
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
@@ -839,7 +901,7 @@
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
@@ -1770,6 +1832,15 @@
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" ht="16">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
